--- a/files/database_home.xlsx
+++ b/files/database_home.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Download</t>
   </si>
   <si>
-    <t xml:space="preserve">Internal_links</t>
+    <t xml:space="preserve">do_not_delete_this_column</t>
   </si>
   <si>
     <t xml:space="preserve">Category_copy</t>
@@ -269,7 +269,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -299,10 +299,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -383,13 +379,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="49.75"/>
@@ -397,14 +393,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="32.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="28.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="23.64"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="11" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="17.5"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="15" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -429,7 +424,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -462,10 +457,7 @@
         <f aca="false">CONCATENATE("/database/",A2,"/download")</f>
         <v>/database/MF_m_01/download</v>
       </c>
-      <c r="I2" s="5" t="str">
-        <f aca="false">CONCATENATE("/home/stupid/DISM/files/",A2,".csv")</f>
-        <v>/home/stupid/DISM/files/MF_m_01.csv</v>
-      </c>
+      <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
         <v>15</v>
       </c>
@@ -496,10 +488,7 @@
         <f aca="false">CONCATENATE("/database/",A3,"/download")</f>
         <v>/database/MF_m_02/download</v>
       </c>
-      <c r="I3" s="5" t="str">
-        <f aca="false">CONCATENATE("/home/stupid/DISM/files/",A3,".csv")</f>
-        <v>/home/stupid/DISM/files/MF_m_02.csv</v>
-      </c>
+      <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
@@ -530,10 +519,7 @@
         <f aca="false">CONCATENATE("/database/",A4,"/download")</f>
         <v>/database/PM_m_01/download</v>
       </c>
-      <c r="I4" s="5" t="str">
-        <f aca="false">CONCATENATE("/home/stupid/DISM/files/",A4,".csv")</f>
-        <v>/home/stupid/DISM/files/PM_m_01.csv</v>
-      </c>
+      <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
         <v>23</v>
       </c>
@@ -564,10 +550,7 @@
         <f aca="false">CONCATENATE("/database/",A5,"/download")</f>
         <v>/database/PM_m_02/download</v>
       </c>
-      <c r="I5" s="5" t="str">
-        <f aca="false">CONCATENATE("/home/stupid/DISM/files/",A5,".csv")</f>
-        <v>/home/stupid/DISM/files/PM_m_02.csv</v>
-      </c>
+      <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
         <v>23</v>
       </c>
@@ -598,10 +581,7 @@
         <f aca="false">CONCATENATE("/database/",A6,"/download")</f>
         <v>/database/PM_m_03/download</v>
       </c>
-      <c r="I6" s="5" t="str">
-        <f aca="false">CONCATENATE("/home/stupid/DISM/files/",A6,".csv")</f>
-        <v>/home/stupid/DISM/files/PM_m_03.csv</v>
-      </c>
+      <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
         <v>23</v>
       </c>
@@ -632,10 +612,7 @@
         <f aca="false">CONCATENATE("/database/",A7,"/download")</f>
         <v>/database/PM_m_04/download</v>
       </c>
-      <c r="I7" s="5" t="str">
-        <f aca="false">CONCATENATE("/home/stupid/DISM/files/",A7,".csv")</f>
-        <v>/home/stupid/DISM/files/PM_m_04.csv</v>
-      </c>
+      <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
         <v>23</v>
       </c>
@@ -666,10 +643,7 @@
         <f aca="false">CONCATENATE("/database/",A8,"/download")</f>
         <v>/database/PM_m_05/download</v>
       </c>
-      <c r="I8" s="5" t="str">
-        <f aca="false">CONCATENATE("/home/stupid/DISM/files/",A8,".csv")</f>
-        <v>/home/stupid/DISM/files/PM_m_05.csv</v>
-      </c>
+      <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
         <v>23</v>
       </c>
@@ -700,10 +674,7 @@
         <f aca="false">CONCATENATE("/database/",A9,"/download")</f>
         <v>/database/PM_m_06/download</v>
       </c>
-      <c r="I9" s="5" t="str">
-        <f aca="false">CONCATENATE("/home/stupid/DISM/files/",A9,".csv")</f>
-        <v>/home/stupid/DISM/files/PM_m_06.csv</v>
-      </c>
+      <c r="I9" s="5"/>
       <c r="J9" s="5" t="s">
         <v>23</v>
       </c>
@@ -734,10 +705,7 @@
         <f aca="false">CONCATENATE("/database/",A10,"/download")</f>
         <v>/database/PM_m_07/download</v>
       </c>
-      <c r="I10" s="5" t="str">
-        <f aca="false">CONCATENATE("/home/stupid/DISM/files/",A10,".csv")</f>
-        <v>/home/stupid/DISM/files/PM_m_07.csv</v>
-      </c>
+      <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
         <v>23</v>
       </c>
@@ -768,10 +736,7 @@
         <f aca="false">CONCATENATE("/database/",A11,"/download")</f>
         <v>/database/PM_m_08/download</v>
       </c>
-      <c r="I11" s="5" t="str">
-        <f aca="false">CONCATENATE("/home/stupid/DISM/files/",A11,".csv")</f>
-        <v>/home/stupid/DISM/files/PM_m_08.csv</v>
-      </c>
+      <c r="I11" s="5"/>
       <c r="J11" s="5" t="s">
         <v>23</v>
       </c>
@@ -802,16 +767,10 @@
         <f aca="false">CONCATENATE("/database/",A12,"/download")</f>
         <v>/database/ED_m_01/download</v>
       </c>
-      <c r="I12" s="5" t="str">
-        <f aca="false">CONCATENATE("/home/stupid/DISM/files/",A12,".csv")</f>
-        <v>/home/stupid/DISM/files/ED_m_01.csv</v>
-      </c>
+      <c r="I12" s="5"/>
       <c r="J12" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I13" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
